--- a/8_annotation_error_study/results/etude-erreur-simulation-evolution-performances.xlsx
+++ b/8_annotation_error_study/results/etude-erreur-simulation-evolution-performances.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SCHILDEW\Documents\INTERACTIVE-CLUSTERING\interactive-clustering-comparative-study\8_annotation_error_study\results\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="performance" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -51,22 +46,22 @@
     <t>constraints_needed</t>
   </si>
   <si>
-    <t>error:0.00%</t>
-  </si>
-  <si>
-    <t>error:5.00%</t>
-  </si>
-  <si>
-    <t>error:10.00%</t>
-  </si>
-  <si>
-    <t>error:15.00%</t>
-  </si>
-  <si>
-    <t>error:20.00%</t>
-  </si>
-  <si>
-    <t>error:25.00%</t>
+    <t>diff:0.00%</t>
+  </si>
+  <si>
+    <t>diff:5.00%</t>
+  </si>
+  <si>
+    <t>diff:10.00%</t>
+  </si>
+  <si>
+    <t>diff:15.00%</t>
+  </si>
+  <si>
+    <t>diff:20.00%</t>
+  </si>
+  <si>
+    <t>diff:25.00%</t>
   </si>
   <si>
     <t>91.15 (+/-3.04)</t>
@@ -234,8 +229,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -298,19 +293,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -352,7 +339,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -384,10 +371,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -419,7 +405,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -595,21 +580,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="10" width="13.5703125" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -638,7 +616,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -670,7 +648,7 @@
         <v>16250</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -702,7 +680,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
@@ -734,7 +712,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
@@ -766,7 +744,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
         <v>13</v>
       </c>
@@ -798,7 +776,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
@@ -830,7 +808,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
         <v>15</v>
       </c>
